--- a/data/trans_camb/P23_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 7,52</t>
+          <t>-5,16; 7,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 0,22</t>
+          <t>-12,06; 0,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,14; -8,72</t>
+          <t>-20,56; -9,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 9,53</t>
+          <t>-5,11; 9,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -2,18</t>
+          <t>-15,5; -2,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,98; -7,06</t>
+          <t>-18,36; -6,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 6,24</t>
+          <t>-3,32; 6,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,04; -2,95</t>
+          <t>-12,06; -2,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,84; -10,09</t>
+          <t>-18,01; -9,84</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 26,71</t>
+          <t>-15,09; 27,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 1,17</t>
+          <t>-36,28; -1,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,42; -30,54</t>
+          <t>-58,26; -31,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 38,22</t>
+          <t>-16,45; 38,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,85; -9,36</t>
+          <t>-49,64; -8,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,25; -28,4</t>
+          <t>-57,49; -27,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 22,9</t>
+          <t>-9,95; 23,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,71; -10,95</t>
+          <t>-37,82; -10,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-55,37; -36,6</t>
+          <t>-55,1; -34,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 6,89</t>
+          <t>-7,19; 7,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 0,21</t>
+          <t>-13,64; 0,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,0; -7,63</t>
+          <t>-21,19; -7,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 9,02</t>
+          <t>-5,29; 9,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -1,13</t>
+          <t>-14,48; -0,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,43; -7,3</t>
+          <t>-19,58; -6,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,55</t>
+          <t>-4,13; 6,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,15; -2,42</t>
+          <t>-12,55; -2,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -8,89</t>
+          <t>-18,5; -9,42</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 22,67</t>
+          <t>-18,56; 23,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 1,14</t>
+          <t>-36,09; 1,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,31; -24,88</t>
+          <t>-54,76; -24,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 28,01</t>
+          <t>-13,74; 28,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,58; -2,86</t>
+          <t>-38,16; -2,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,48; -22,75</t>
+          <t>-50,53; -21,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 17,22</t>
+          <t>-11,31; 19,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,3; -7,8</t>
+          <t>-33,75; -7,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,97; -27,42</t>
+          <t>-49,84; -29,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 0,59</t>
+          <t>-10,96; 0,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 2,21</t>
+          <t>-10,04; 2,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-40,54; -15,3</t>
+          <t>-40,22; -15,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 13,75</t>
+          <t>-2,81; 14,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 16,28</t>
+          <t>-4,67; 15,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,59; -2,91</t>
+          <t>-18,95; -1,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 1,56</t>
+          <t>-8,26; 2,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 3,88</t>
+          <t>-6,88; 3,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-36,04; -14,64</t>
+          <t>-36,4; -15,0</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,28; 1,49</t>
+          <t>-22,68; 0,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 5,22</t>
+          <t>-20,79; 6,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,06; -33,43</t>
+          <t>-85,33; -34,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 62,59</t>
+          <t>-9,21; 71,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 75,88</t>
+          <t>-14,64; 69,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,9; -13,88</t>
+          <t>-60,77; -9,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 4,22</t>
+          <t>-18,59; 5,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 9,91</t>
+          <t>-15,88; 9,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,25; -36,12</t>
+          <t>-82,99; -37,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 1,37</t>
+          <t>-6,49; 1,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -1,8</t>
+          <t>-9,26; -1,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -5,71</t>
+          <t>-14,67; -5,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 9,71</t>
+          <t>-0,13; 9,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 10,63</t>
+          <t>1,75; 11,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,28; -2,87</t>
+          <t>-22,43; -2,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,08</t>
+          <t>-2,9; 3,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,2</t>
+          <t>-4,2; 2,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-19,3; -6,97</t>
+          <t>-20,93; -7,25</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 3,46</t>
+          <t>-14,65; 3,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,93; -4,34</t>
+          <t>-21,03; -3,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,84; -13,6</t>
+          <t>-33,01; -13,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 32,84</t>
+          <t>-0,15; 33,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 35,93</t>
+          <t>5,29; 39,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,41; -9,05</t>
+          <t>-63,97; -9,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 8,18</t>
+          <t>-7,28; 9,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 5,97</t>
+          <t>-10,24; 5,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,02; -18,46</t>
+          <t>-52,86; -19,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -2,28</t>
+          <t>-15,98; -2,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,53; -3,16</t>
+          <t>-16,66; -2,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,98; -7,48</t>
+          <t>-21,99; -7,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 2,79</t>
+          <t>-8,09; 2,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 3,43</t>
+          <t>-7,02; 3,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,74; -6,79</t>
+          <t>-17,67; -6,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -0,44</t>
+          <t>-9,28; -0,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 0,16</t>
+          <t>-8,24; 0,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -8,97</t>
+          <t>-18,7; -8,96</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-30,58; -4,51</t>
+          <t>-30,37; -4,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,12; -7,66</t>
+          <t>-31,25; -6,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,48; -16,86</t>
+          <t>-42,23; -17,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 10,06</t>
+          <t>-24,0; 8,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 12,79</t>
+          <t>-20,11; 14,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-53,46; -24,18</t>
+          <t>-53,85; -24,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-22,24; -1,1</t>
+          <t>-22,7; -1,13</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 0,46</t>
+          <t>-21,08; 0,69</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-49,06; -25,9</t>
+          <t>-47,76; -25,45</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,07; -0,31</t>
+          <t>-14,66; -0,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 4,83</t>
+          <t>-9,32; 5,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-22,12; -6,06</t>
+          <t>-22,19; -5,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,7</t>
+          <t>-1,84; 3,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 5,46</t>
+          <t>-0,09; 5,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 1,2</t>
+          <t>-4,87; 1,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,02</t>
+          <t>-3,57; 1,88</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,8</t>
+          <t>-0,81; 4,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,29; -1,08</t>
+          <t>-7,06; -0,65</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-49,86; -1,1</t>
+          <t>-47,78; -3,41</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 20,82</t>
+          <t>-29,82; 21,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-75,31; -23,26</t>
+          <t>-75,71; -21,01</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 30,87</t>
+          <t>-12,59; 32,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 45,09</t>
+          <t>-0,59; 46,13</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 10,72</t>
+          <t>-34,01; 9,39</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 14,41</t>
+          <t>-20,46; 12,78</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 32,26</t>
+          <t>-4,39; 31,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-42,73; -4,73</t>
+          <t>-42,33; -4,73</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -0,55</t>
+          <t>-5,29; -0,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -2,92</t>
+          <t>-7,47; -2,9</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-22,01; -12,38</t>
+          <t>-20,9; -12,32</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,65</t>
+          <t>0,39; 4,84</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,71</t>
+          <t>-0,52; 3,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -4,42</t>
+          <t>-10,14; -4,59</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,43</t>
+          <t>-1,82; 1,48</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,05</t>
+          <t>-3,47; -0,19</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-13,77; -8,89</t>
+          <t>-14,03; -8,98</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-12,93; -1,39</t>
+          <t>-12,89; -0,83</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -7,52</t>
+          <t>-18,15; -7,42</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-53,5; -31,84</t>
+          <t>-52,49; -31,7</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,9; 19,54</t>
+          <t>1,52; 20,64</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 15,95</t>
+          <t>-2,07; 16,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-40,03; -18,89</t>
+          <t>-41,24; -19,26</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 4,55</t>
+          <t>-5,58; 4,72</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 0,16</t>
+          <t>-10,53; -0,68</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-42,66; -28,29</t>
+          <t>-44,21; -28,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Clase-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
